--- a/Week 10/Market survey-DT.xlsx
+++ b/Week 10/Market survey-DT.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\wf\Education\2022\GSOE9830-T2\Week 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b8fa4194a2c3a9b/Obsidian/GSOE9830-Economic_Analysis/Week 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC51796-EF78-4AD2-963C-41BADB736AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{1CC51796-EF78-4AD2-963C-41BADB736AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A85756-B97C-4CF5-9DD9-99970F1F9FC6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{EFB4EC07-1172-47A7-9B54-A4900DC9E58B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="4" xr2:uid="{EFB4EC07-1172-47A7-9B54-A4900DC9E58B}"/>
   </bookViews>
   <sheets>
     <sheet name="Solution step3" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Solution step 2" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Solution step1" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Decision tree-market survay" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t xml:space="preserve">Survey cost </t>
   </si>
@@ -85,6 +86,12 @@
   </si>
   <si>
     <t>value of infromation =6.0136-7=-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey </t>
+  </si>
+  <si>
+    <t>No survey</t>
   </si>
 </sst>
 </file>
@@ -94,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +116,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +142,16 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -221,8 +252,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -248,15 +281,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,27 +606,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04438C7-7FBD-4652-8635-B1834D16A7AD}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,11 +634,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -609,7 +646,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,61 +654,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
-      <c r="G9" s="16">
+      <c r="G9" s="2">
         <f>'Solution step 2'!K11</f>
         <v>6.0135999999999994</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
       <c r="H12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G15" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,29 +699,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E4E2EA-4BC4-49B6-A1BB-64D460BB0AD7}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,11 +729,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -722,7 +741,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -730,18 +749,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I8" s="7"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
         <v>10</v>
@@ -752,18 +764,16 @@
         <v>13.309999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="G10" s="4">
         <v>0.42</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
+      <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11">
@@ -771,12 +781,11 @@
         <v>6.0135999999999994</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
@@ -790,35 +799,29 @@
         <v>0.73000000000000043</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="G14" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="F16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="9">
         <f>MAX('Solution step1'!N27,'Solution step1'!N31)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,26 +836,26 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,11 +863,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -875,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -887,7 +890,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
@@ -900,20 +903,20 @@
         <v>13.309999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I8" s="6"/>
       <c r="L8" s="2">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
         <v>10</v>
@@ -923,14 +926,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="G10" s="4">
         <v>0.42</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2" t="s">
@@ -944,35 +947,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="L15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
@@ -987,7 +985,7 @@
         <v>0.73000000000000043</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="I18" s="6"/>
       <c r="K18" s="13"/>
@@ -995,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1011,14 +1009,14 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="12"/>
       <c r="G20" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="J21" s="2" t="s">
         <v>3</v>
@@ -1031,29 +1029,29 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
       <c r="L25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
       <c r="J27" s="4" t="s">
         <v>2</v>
@@ -1067,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
       <c r="F28" s="14"/>
       <c r="I28" s="5"/>
@@ -1076,11 +1074,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="9" t="s">
         <v>8</v>
       </c>
@@ -1088,10 +1086,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1109,32 +1107,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB62698-B970-4A42-886C-E57DBB0CF916}">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="19">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="16">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,11 +1140,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1169,26 +1170,30 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="4" t="s">
+    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="18">
+        <f>0.143*160-0.857*-10</f>
+        <v>31.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
       <c r="K7" s="13"/>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I8" s="6"/>
       <c r="L8" s="2">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
         <v>10</v>
@@ -1198,57 +1203,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="G10" s="4">
         <v>0.42</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N11" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E14" s="5"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="L15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="N17" s="18">
+        <f>0.069*160-10*0.931</f>
+        <v>1.7300000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="I18" s="6"/>
       <c r="K18" s="13"/>
@@ -1256,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1272,49 +1279,56 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="12"/>
       <c r="G20" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="J21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="N21" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
       <c r="L25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
       <c r="J27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="N27" s="18">
+        <f>160*0.1+0.9*-10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
       <c r="F28" s="14"/>
       <c r="I28" s="5"/>
@@ -1323,11 +1337,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="9" t="s">
         <v>8</v>
       </c>
@@ -1335,13 +1349,217 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J31" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F0792B-6A27-4D8A-B31A-645EEC429DCB}">
+  <dimension ref="F8:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="18">
+        <f>0.143*160-0.857*-10</f>
+        <v>31.45</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="H15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="18">
+        <f xml:space="preserve"> 0.42*J14+H25*J24</f>
+        <v>14.212399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="18">
+        <f>0.069*160-10*0.931</f>
+        <v>1.7300000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+      <c r="H25" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="5"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="19">
+        <f>J33</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="18">
+        <f>160*0.1+0.9*-10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
